--- a/HERITAGE.xlsx
+++ b/HERITAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timhy\Desktop\SWOFantasyGolf.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E91FC45F-1CA0-43B4-A74E-06AC9EA8B583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5220D8FF-235E-4162-A58C-F5096902C767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,156 +371,159 @@
     <t>=if(Left(A2,1)="T",RIGHT(A2,LEN(A2)-1),A2)</t>
   </si>
   <si>
+    <t>Brendon Todd</t>
+  </si>
+  <si>
+    <t>Corey Conners</t>
+  </si>
+  <si>
+    <t>Tommy Fleetwood</t>
+  </si>
+  <si>
+    <t>Graeme McDowell</t>
+  </si>
+  <si>
+    <t>Tyrrell Hatton</t>
+  </si>
+  <si>
+    <t>Ian Poulter</t>
+  </si>
+  <si>
+    <t>Danny Willett</t>
+  </si>
+  <si>
+    <t>PLAYER NAMEPLAY-BY-PLAY OFF</t>
+  </si>
+  <si>
+    <t>THRU</t>
+  </si>
+  <si>
+    <t>ROUND</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>STROKES</t>
+  </si>
+  <si>
+    <t>Cameron Young</t>
+  </si>
+  <si>
+    <t>Aaron Wise</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>Si Woo Kim</t>
+  </si>
+  <si>
+    <t>Adam Long</t>
+  </si>
+  <si>
+    <t>Patton Kizzire</t>
+  </si>
+  <si>
+    <t>Anirban Lahiri</t>
+  </si>
+  <si>
+    <t>Troy Merritt</t>
+  </si>
+  <si>
+    <t>Patrick Cantlay</t>
+  </si>
+  <si>
+    <t>Cam Davis</t>
+  </si>
+  <si>
+    <t>J.T. Poston</t>
+  </si>
+  <si>
+    <t>Sepp Straka</t>
+  </si>
+  <si>
+    <t>Matt Kuchar</t>
+  </si>
+  <si>
+    <t>Harold Varner III</t>
+  </si>
+  <si>
+    <t>Shane Lowry</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Erik van Rooyen</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Tyler Duncan</t>
+  </si>
+  <si>
+    <t>Scott Piercy</t>
+  </si>
+  <si>
+    <t>Daniel Berger</t>
+  </si>
+  <si>
+    <t>Adam Hadwin</t>
+  </si>
+  <si>
+    <t>Kevin Na</t>
+  </si>
+  <si>
+    <t>Mito Pereira</t>
+  </si>
+  <si>
+    <t>Adam Svensson</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
     <t>Justin Thomas</t>
   </si>
   <si>
-    <t>Daniel Berger</t>
-  </si>
-  <si>
-    <t>Shane Lowry</t>
-  </si>
-  <si>
-    <t>Erik van Rooyen</t>
-  </si>
-  <si>
-    <t>Corey Conners</t>
-  </si>
-  <si>
-    <t>Tommy Fleetwood</t>
-  </si>
-  <si>
-    <t>Tyrrell Hatton</t>
-  </si>
-  <si>
-    <t>Ian Poulter</t>
-  </si>
-  <si>
-    <t>Adam Hadwin</t>
-  </si>
-  <si>
-    <t>PLAYER NAMEPLAY-BY-PLAY OFF</t>
-  </si>
-  <si>
-    <t>THRU</t>
-  </si>
-  <si>
-    <t>ROUND</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>STROKES</t>
-  </si>
-  <si>
-    <t>Anirban Lahiri</t>
-  </si>
-  <si>
-    <t>Harold Varner III</t>
+    <t>Brian Harman</t>
+  </si>
+  <si>
+    <t>Branden Grace</t>
   </si>
   <si>
     <t>Doug Ghim</t>
   </si>
   <si>
-    <t>Sepp Straka</t>
-  </si>
-  <si>
-    <t>Patton Kizzire</t>
+    <t>Wyndham Clark</t>
+  </si>
+  <si>
+    <t>Hudson Swafford</t>
+  </si>
+  <si>
+    <t>C.T. Pan</t>
   </si>
   <si>
     <t>Alex Noren</t>
   </si>
   <si>
-    <t>Troy Merritt</t>
-  </si>
-  <si>
-    <t>Adam Long</t>
+    <t>Robert Streb</t>
   </si>
   <si>
     <t>Peter Malnati</t>
   </si>
   <si>
-    <t>Aaron Wise</t>
-  </si>
-  <si>
-    <t>Branden Grace</t>
-  </si>
-  <si>
-    <t>Brian Harman</t>
-  </si>
-  <si>
-    <t>Patrick Cantlay</t>
-  </si>
-  <si>
-    <t>Cam Davis</t>
-  </si>
-  <si>
-    <t>J.T. Poston</t>
-  </si>
-  <si>
-    <t>Cameron Young</t>
-  </si>
-  <si>
-    <t>Matt Kuchar</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>Tyler Duncan</t>
-  </si>
-  <si>
-    <t>Scott Piercy</t>
-  </si>
-  <si>
-    <t>Graeme McDowell</t>
-  </si>
-  <si>
-    <t>T26</t>
-  </si>
-  <si>
-    <t>Brendon Todd</t>
-  </si>
-  <si>
-    <t>Kevin Na</t>
-  </si>
-  <si>
-    <t>Mito Pereira</t>
-  </si>
-  <si>
-    <t>Adam Svensson</t>
-  </si>
-  <si>
-    <t>T35</t>
-  </si>
-  <si>
-    <t>Wyndham Clark</t>
-  </si>
-  <si>
-    <t>Hudson Swafford</t>
-  </si>
-  <si>
-    <t>C.T. Pan</t>
-  </si>
-  <si>
-    <t>Si Woo Kim</t>
-  </si>
-  <si>
-    <t>Robert Streb</t>
-  </si>
-  <si>
     <t>T48</t>
   </si>
   <si>
@@ -528,9 +531,6 @@
   </si>
   <si>
     <t>Brian Gay</t>
-  </si>
-  <si>
-    <t>Danny Willett</t>
   </si>
   <si>
     <t>T54</t>
@@ -993,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L72"/>
@@ -1017,31 +1017,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
@@ -1054,34 +1054,34 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>-13</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>-5</v>
       </c>
-      <c r="F2" s="6">
-        <v>69</v>
-      </c>
-      <c r="G2" s="6">
-        <v>68</v>
-      </c>
-      <c r="H2" s="6">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="F2">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>68</v>
+      </c>
+      <c r="H2">
+        <v>68</v>
+      </c>
+      <c r="I2">
         <v>66</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <v>271</v>
       </c>
       <c r="K2" s="7">
@@ -1096,34 +1096,34 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="6">
+        <v>134</v>
+      </c>
+      <c r="C3">
         <v>-13</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>-3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>66</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>67</v>
       </c>
-      <c r="H3" s="6">
-        <v>70</v>
-      </c>
-      <c r="I3" s="6">
-        <v>68</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>68</v>
+      </c>
+      <c r="J3">
         <v>271</v>
       </c>
       <c r="K3" s="7">
@@ -1138,34 +1138,34 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="6">
+        <v>135</v>
+      </c>
+      <c r="C4">
         <v>-12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>-8</v>
       </c>
-      <c r="F4" s="6">
-        <v>69</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4">
+        <v>69</v>
+      </c>
+      <c r="G4">
         <v>73</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>67</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>63</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>272</v>
       </c>
       <c r="K4" s="7">
@@ -1180,34 +1180,34 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="6">
+        <v>136</v>
+      </c>
+      <c r="C5">
         <v>-12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>-7</v>
       </c>
-      <c r="F5" s="6">
-        <v>68</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5">
+        <v>68</v>
+      </c>
+      <c r="G5">
         <v>72</v>
       </c>
-      <c r="H5" s="6">
-        <v>68</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="H5">
+        <v>68</v>
+      </c>
+      <c r="I5">
         <v>64</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>272</v>
       </c>
       <c r="K5" s="7">
@@ -1219,34 +1219,34 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="6">
+        <v>126</v>
+      </c>
+      <c r="C6">
         <v>-12</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>-5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>63</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>73</v>
       </c>
-      <c r="H6" s="6">
-        <v>70</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6">
         <v>66</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>272</v>
       </c>
       <c r="K6" s="7">
@@ -1258,34 +1258,34 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="6">
+        <v>137</v>
+      </c>
+      <c r="C7">
         <v>-12</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>-3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>66</v>
       </c>
-      <c r="G7" s="6">
-        <v>71</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7">
+        <v>71</v>
+      </c>
+      <c r="H7">
         <v>67</v>
       </c>
-      <c r="I7" s="6">
-        <v>68</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7">
+        <v>68</v>
+      </c>
+      <c r="J7">
         <v>272</v>
       </c>
       <c r="K7" s="7">
@@ -1297,34 +1297,34 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="6">
+        <v>138</v>
+      </c>
+      <c r="C8">
         <v>-12</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>-3</v>
       </c>
-      <c r="F8" s="6">
-        <v>68</v>
-      </c>
-      <c r="G8" s="6">
-        <v>69</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="F8">
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <v>69</v>
+      </c>
+      <c r="H8">
         <v>67</v>
       </c>
-      <c r="I8" s="6">
-        <v>68</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8">
+        <v>68</v>
+      </c>
+      <c r="J8">
         <v>272</v>
       </c>
       <c r="K8" s="7">
@@ -1336,34 +1336,34 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="6">
+        <v>139</v>
+      </c>
+      <c r="C9">
         <v>-12</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>-1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>67</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>72</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>63</v>
       </c>
-      <c r="I9" s="6">
-        <v>70</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
         <v>272</v>
       </c>
       <c r="K9" s="7">
@@ -1375,34 +1375,34 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="6">
+        <v>140</v>
+      </c>
+      <c r="C10">
         <v>-12</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>66</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>72</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>65</v>
       </c>
-      <c r="I10" s="6">
-        <v>69</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10">
+        <v>69</v>
+      </c>
+      <c r="J10">
         <v>272</v>
       </c>
       <c r="K10" s="7">
@@ -1414,229 +1414,229 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>-11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7">
+        <v>11</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" ref="L11:L72" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>-11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>69</v>
+      </c>
+      <c r="G12">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>273</v>
+      </c>
+      <c r="K12" s="7">
+        <v>11</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <v>-9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <v>68</v>
+      </c>
+      <c r="G13">
+        <v>73</v>
+      </c>
+      <c r="H13">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <v>275</v>
+      </c>
+      <c r="K13" s="7">
+        <v>11</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>-9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>-5</v>
+      </c>
+      <c r="F14">
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <v>73</v>
+      </c>
+      <c r="H14">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>66</v>
+      </c>
+      <c r="J14">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7">
+        <v>11</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>71</v>
-      </c>
-      <c r="G11" s="6">
-        <v>70</v>
-      </c>
-      <c r="H11" s="6">
-        <v>64</v>
-      </c>
-      <c r="I11" s="6">
-        <v>68</v>
-      </c>
-      <c r="J11" s="6">
-        <v>273</v>
-      </c>
-      <c r="K11" s="7">
-        <v>11</v>
-      </c>
-      <c r="L11" s="8" t="str">
-        <f t="shared" ref="L11:L71" si="1">IF(LEFT(A11,1)="T",RIGHT(A11,LEN(A11)-1),A11)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="C15">
+        <v>-9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>-4</v>
+      </c>
+      <c r="F15">
         <v>67</v>
       </c>
-      <c r="H12" s="6">
+      <c r="G15">
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <v>69</v>
+      </c>
+      <c r="I15">
         <v>67</v>
       </c>
-      <c r="I12" s="6">
-        <v>70</v>
-      </c>
-      <c r="J12" s="6">
-        <v>273</v>
-      </c>
-      <c r="K12" s="7">
-        <v>11</v>
-      </c>
-      <c r="L12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-6</v>
-      </c>
-      <c r="F13" s="6">
-        <v>68</v>
-      </c>
-      <c r="G13" s="6">
-        <v>73</v>
-      </c>
-      <c r="H13" s="6">
-        <v>69</v>
-      </c>
-      <c r="I13" s="6">
-        <v>65</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="J15">
         <v>275</v>
       </c>
-      <c r="K13" s="7">
-        <v>11</v>
-      </c>
-      <c r="L13" s="8" t="str">
+      <c r="K15" s="7">
+        <v>11</v>
+      </c>
+      <c r="L15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-5</v>
-      </c>
-      <c r="F14" s="6">
-        <v>69</v>
-      </c>
-      <c r="G14" s="6">
-        <v>73</v>
-      </c>
-      <c r="H14" s="6">
-        <v>67</v>
-      </c>
-      <c r="I14" s="6">
-        <v>66</v>
-      </c>
-      <c r="J14" s="6">
-        <v>275</v>
-      </c>
-      <c r="K14" s="7">
-        <v>11</v>
-      </c>
-      <c r="L14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F15" s="6">
-        <v>67</v>
-      </c>
-      <c r="G15" s="6">
-        <v>72</v>
-      </c>
-      <c r="H15" s="6">
-        <v>69</v>
-      </c>
-      <c r="I15" s="6">
-        <v>67</v>
-      </c>
-      <c r="J15" s="6">
-        <v>275</v>
-      </c>
-      <c r="K15" s="7">
-        <v>11</v>
-      </c>
-      <c r="L15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>146</v>
+      <c r="A16" t="s">
+        <v>143</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>-9</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>-3</v>
       </c>
-      <c r="F16" s="6">
-        <v>70</v>
-      </c>
-      <c r="G16" s="6">
-        <v>68</v>
-      </c>
-      <c r="H16" s="6">
-        <v>69</v>
-      </c>
-      <c r="I16" s="6">
-        <v>68</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>68</v>
+      </c>
+      <c r="H16">
+        <v>69</v>
+      </c>
+      <c r="I16">
+        <v>68</v>
+      </c>
+      <c r="J16">
         <v>275</v>
       </c>
       <c r="K16" s="7">
@@ -1648,34 +1648,34 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>146</v>
+      <c r="A17" t="s">
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="6">
+        <v>133</v>
+      </c>
+      <c r="C17">
         <v>-9</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>-3</v>
       </c>
-      <c r="F17" s="6">
-        <v>69</v>
-      </c>
-      <c r="G17" s="6">
-        <v>70</v>
-      </c>
-      <c r="H17" s="6">
-        <v>68</v>
-      </c>
-      <c r="I17" s="6">
-        <v>68</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="F17">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <v>68</v>
+      </c>
+      <c r="I17">
+        <v>68</v>
+      </c>
+      <c r="J17">
         <v>275</v>
       </c>
       <c r="K17" s="7">
@@ -1687,34 +1687,34 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>146</v>
+      <c r="A18" t="s">
+        <v>143</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>-9</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>-2</v>
       </c>
-      <c r="F18" s="6">
-        <v>69</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18">
+        <v>69</v>
+      </c>
+      <c r="G18">
         <v>67</v>
       </c>
-      <c r="H18" s="6">
-        <v>70</v>
-      </c>
-      <c r="I18" s="6">
-        <v>69</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="H18">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>69</v>
+      </c>
+      <c r="J18">
         <v>275</v>
       </c>
       <c r="K18" s="7">
@@ -1726,34 +1726,34 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>146</v>
+      <c r="A19" t="s">
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>-9</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>-2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>65</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>72</v>
       </c>
-      <c r="H19" s="6">
-        <v>69</v>
-      </c>
-      <c r="I19" s="6">
-        <v>69</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="H19">
+        <v>69</v>
+      </c>
+      <c r="I19">
+        <v>69</v>
+      </c>
+      <c r="J19">
         <v>275</v>
       </c>
       <c r="K19" s="7">
@@ -1765,190 +1765,190 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20">
+        <v>-9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>-2</v>
+      </c>
+      <c r="F20">
+        <v>66</v>
+      </c>
+      <c r="G20">
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <v>69</v>
+      </c>
+      <c r="J20">
+        <v>275</v>
+      </c>
+      <c r="K20" s="7">
+        <v>11</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>-9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>67</v>
+      </c>
+      <c r="H21">
+        <v>69</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>275</v>
+      </c>
+      <c r="K21" s="7">
+        <v>11</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>146</v>
       </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="C22">
+        <v>-8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>-4</v>
+      </c>
+      <c r="F22">
+        <v>71</v>
+      </c>
+      <c r="G22">
+        <v>70</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>67</v>
+      </c>
+      <c r="J22">
+        <v>276</v>
+      </c>
+      <c r="K22" s="7">
+        <v>11</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23">
+        <v>-8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>-3</v>
+      </c>
+      <c r="F23">
         <v>66</v>
       </c>
-      <c r="G20" s="6">
-        <v>72</v>
-      </c>
-      <c r="H20" s="6">
-        <v>68</v>
-      </c>
-      <c r="I20" s="6">
-        <v>69</v>
-      </c>
-      <c r="J20" s="6">
-        <v>275</v>
-      </c>
-      <c r="K20" s="7">
-        <v>11</v>
-      </c>
-      <c r="L20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>69</v>
-      </c>
-      <c r="G21" s="6">
-        <v>67</v>
-      </c>
-      <c r="H21" s="6">
-        <v>69</v>
-      </c>
-      <c r="I21" s="6">
-        <v>70</v>
-      </c>
-      <c r="J21" s="6">
-        <v>275</v>
-      </c>
-      <c r="K21" s="7">
-        <v>11</v>
-      </c>
-      <c r="L21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F22" s="6">
-        <v>71</v>
-      </c>
-      <c r="G22" s="6">
-        <v>70</v>
-      </c>
-      <c r="H22" s="6">
-        <v>68</v>
-      </c>
-      <c r="I22" s="6">
-        <v>67</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="G23">
+        <v>76</v>
+      </c>
+      <c r="H23">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <v>68</v>
+      </c>
+      <c r="J23">
         <v>276</v>
       </c>
-      <c r="K22" s="7">
-        <v>11</v>
-      </c>
-      <c r="L22" s="8" t="str">
+      <c r="K23" s="7">
+        <v>11</v>
+      </c>
+      <c r="L23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F23" s="6">
-        <v>66</v>
-      </c>
-      <c r="G23" s="6">
-        <v>76</v>
-      </c>
-      <c r="H23" s="6">
-        <v>66</v>
-      </c>
-      <c r="I23" s="6">
-        <v>68</v>
-      </c>
-      <c r="J23" s="6">
-        <v>276</v>
-      </c>
-      <c r="K23" s="7">
-        <v>11</v>
-      </c>
-      <c r="L23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>-8</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>-2</v>
       </c>
-      <c r="F24" s="6">
-        <v>70</v>
-      </c>
-      <c r="G24" s="6">
-        <v>70</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="F24">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>70</v>
+      </c>
+      <c r="H24">
         <v>67</v>
       </c>
-      <c r="I24" s="6">
-        <v>69</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="I24">
+        <v>69</v>
+      </c>
+      <c r="J24">
         <v>276</v>
       </c>
       <c r="K24" s="7">
@@ -1960,34 +1960,34 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>-8</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6">
-        <v>69</v>
-      </c>
-      <c r="G25" s="6">
-        <v>69</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="F25">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <v>69</v>
+      </c>
+      <c r="H25">
         <v>67</v>
       </c>
-      <c r="I25" s="6">
-        <v>71</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25">
+        <v>71</v>
+      </c>
+      <c r="J25">
         <v>276</v>
       </c>
       <c r="K25" s="7">
@@ -1999,34 +1999,34 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="6">
+        <v>127</v>
+      </c>
+      <c r="C26">
         <v>-8</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>68</v>
-      </c>
-      <c r="G26" s="6">
-        <v>68</v>
-      </c>
-      <c r="H26" s="6">
-        <v>68</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>68</v>
+      </c>
+      <c r="G26">
+        <v>68</v>
+      </c>
+      <c r="H26">
+        <v>68</v>
+      </c>
+      <c r="I26">
         <v>72</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26">
         <v>276</v>
       </c>
       <c r="K26" s="7">
@@ -2038,34 +2038,34 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>150</v>
+      <c r="A27" t="s">
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="6">
+        <v>115</v>
+      </c>
+      <c r="C27">
         <v>-7</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>-4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>67</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>72</v>
       </c>
-      <c r="H27" s="6">
-        <v>71</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="H27">
+        <v>71</v>
+      </c>
+      <c r="I27">
         <v>67</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27">
         <v>277</v>
       </c>
       <c r="K27" s="7">
@@ -2077,34 +2077,34 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>150</v>
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>-7</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>-3</v>
       </c>
-      <c r="F28" s="6">
-        <v>70</v>
-      </c>
-      <c r="G28" s="6">
-        <v>70</v>
-      </c>
-      <c r="H28" s="6">
-        <v>69</v>
-      </c>
-      <c r="I28" s="6">
-        <v>68</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="F28">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>70</v>
+      </c>
+      <c r="H28">
+        <v>69</v>
+      </c>
+      <c r="I28">
+        <v>68</v>
+      </c>
+      <c r="J28">
         <v>277</v>
       </c>
       <c r="K28" s="7">
@@ -2116,34 +2116,34 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>150</v>
+      <c r="A29" t="s">
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="6">
+        <v>131</v>
+      </c>
+      <c r="C29">
         <v>-7</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>-2</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>67</v>
       </c>
-      <c r="G29" s="6">
-        <v>71</v>
-      </c>
-      <c r="H29" s="6">
-        <v>70</v>
-      </c>
-      <c r="I29" s="6">
-        <v>69</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="G29">
+        <v>71</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>69</v>
+      </c>
+      <c r="J29">
         <v>277</v>
       </c>
       <c r="K29" s="7">
@@ -2155,34 +2155,34 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>150</v>
+      <c r="A30" t="s">
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="6">
+        <v>147</v>
+      </c>
+      <c r="C30">
         <v>-7</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>-2</v>
       </c>
-      <c r="F30" s="6">
-        <v>69</v>
-      </c>
-      <c r="G30" s="6">
-        <v>69</v>
-      </c>
-      <c r="H30" s="6">
-        <v>70</v>
-      </c>
-      <c r="I30" s="6">
-        <v>69</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="F30">
+        <v>69</v>
+      </c>
+      <c r="G30">
+        <v>69</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>69</v>
+      </c>
+      <c r="J30">
         <v>277</v>
       </c>
       <c r="K30" s="7">
@@ -2194,34 +2194,34 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>150</v>
+      <c r="A31" t="s">
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="6">
+        <v>111</v>
+      </c>
+      <c r="C31">
         <v>-7</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>-2</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>72</v>
       </c>
-      <c r="G31" s="6">
-        <v>68</v>
-      </c>
-      <c r="H31" s="6">
-        <v>68</v>
-      </c>
-      <c r="I31" s="6">
-        <v>69</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="G31">
+        <v>68</v>
+      </c>
+      <c r="H31">
+        <v>68</v>
+      </c>
+      <c r="I31">
+        <v>69</v>
+      </c>
+      <c r="J31">
         <v>277</v>
       </c>
       <c r="K31" s="7">
@@ -2233,34 +2233,34 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>150</v>
+      <c r="A32" t="s">
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="6">
+        <v>148</v>
+      </c>
+      <c r="C32">
         <v>-7</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>-1</v>
       </c>
-      <c r="F32" s="6">
-        <v>70</v>
-      </c>
-      <c r="G32" s="6">
-        <v>69</v>
-      </c>
-      <c r="H32" s="6">
-        <v>68</v>
-      </c>
-      <c r="I32" s="6">
-        <v>70</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>69</v>
+      </c>
+      <c r="H32">
+        <v>68</v>
+      </c>
+      <c r="I32">
+        <v>70</v>
+      </c>
+      <c r="J32">
         <v>277</v>
       </c>
       <c r="K32" s="7">
@@ -2272,34 +2272,34 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>150</v>
+      <c r="A33" t="s">
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="6">
+        <v>149</v>
+      </c>
+      <c r="C33">
         <v>-7</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>66</v>
       </c>
-      <c r="G33" s="6">
-        <v>71</v>
-      </c>
-      <c r="H33" s="6">
-        <v>69</v>
-      </c>
-      <c r="I33" s="6">
-        <v>71</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="G33">
+        <v>71</v>
+      </c>
+      <c r="H33">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>71</v>
+      </c>
+      <c r="J33">
         <v>277</v>
       </c>
       <c r="K33" s="7">
@@ -2311,34 +2311,34 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>150</v>
+      <c r="A34" t="s">
+        <v>128</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>-7</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="6">
-        <v>71</v>
-      </c>
-      <c r="G34" s="6">
-        <v>70</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="F34">
+        <v>71</v>
+      </c>
+      <c r="G34">
+        <v>70</v>
+      </c>
+      <c r="H34">
         <v>65</v>
       </c>
-      <c r="I34" s="6">
-        <v>71</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="I34">
+        <v>71</v>
+      </c>
+      <c r="J34">
         <v>277</v>
       </c>
       <c r="K34" s="7">
@@ -2350,229 +2350,229 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
         <v>150</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>-7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>73</v>
+      </c>
+      <c r="H35">
+        <v>67</v>
+      </c>
+      <c r="I35">
+        <v>71</v>
+      </c>
+      <c r="J35">
+        <v>277</v>
+      </c>
+      <c r="K35" s="7">
+        <v>11</v>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36">
+        <v>-6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>-4</v>
+      </c>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>71</v>
+      </c>
+      <c r="H36">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>67</v>
+      </c>
+      <c r="J36">
+        <v>278</v>
+      </c>
+      <c r="K36" s="7">
+        <v>11</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37">
+        <v>-6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>-3</v>
+      </c>
+      <c r="F37">
+        <v>72</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37">
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <v>68</v>
+      </c>
+      <c r="J37">
+        <v>278</v>
+      </c>
+      <c r="K37" s="7">
+        <v>11</v>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="6">
-        <v>66</v>
-      </c>
-      <c r="G35" s="6">
-        <v>73</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="C38">
+        <v>-6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>-2</v>
+      </c>
+      <c r="F38">
+        <v>71</v>
+      </c>
+      <c r="G38">
+        <v>70</v>
+      </c>
+      <c r="H38">
+        <v>68</v>
+      </c>
+      <c r="I38">
+        <v>69</v>
+      </c>
+      <c r="J38">
+        <v>278</v>
+      </c>
+      <c r="K38" s="7">
+        <v>11</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39">
+        <v>-6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>-2</v>
+      </c>
+      <c r="F39">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>72</v>
+      </c>
+      <c r="H39">
         <v>67</v>
       </c>
-      <c r="I35" s="6">
-        <v>71</v>
-      </c>
-      <c r="J35" s="6">
-        <v>277</v>
-      </c>
-      <c r="K35" s="7">
-        <v>11</v>
-      </c>
-      <c r="L35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F36" s="6">
-        <v>70</v>
-      </c>
-      <c r="G36" s="6">
-        <v>71</v>
-      </c>
-      <c r="H36" s="6">
-        <v>70</v>
-      </c>
-      <c r="I36" s="6">
-        <v>67</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I39">
+        <v>69</v>
+      </c>
+      <c r="J39">
         <v>278</v>
       </c>
-      <c r="K36" s="7">
-        <v>11</v>
-      </c>
-      <c r="L36" s="8" t="str">
+      <c r="K39" s="7">
+        <v>11</v>
+      </c>
+      <c r="L39" s="8" t="str">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-3</v>
-      </c>
-      <c r="F37" s="6">
-        <v>72</v>
-      </c>
-      <c r="G37" s="6">
-        <v>70</v>
-      </c>
-      <c r="H37" s="6">
-        <v>68</v>
-      </c>
-      <c r="I37" s="6">
-        <v>68</v>
-      </c>
-      <c r="J37" s="6">
-        <v>278</v>
-      </c>
-      <c r="K37" s="7">
-        <v>11</v>
-      </c>
-      <c r="L37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F38" s="6">
-        <v>71</v>
-      </c>
-      <c r="G38" s="6">
-        <v>70</v>
-      </c>
-      <c r="H38" s="6">
-        <v>68</v>
-      </c>
-      <c r="I38" s="6">
-        <v>69</v>
-      </c>
-      <c r="J38" s="6">
-        <v>278</v>
-      </c>
-      <c r="K38" s="7">
-        <v>11</v>
-      </c>
-      <c r="L38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F39" s="6">
-        <v>70</v>
-      </c>
-      <c r="G39" s="6">
-        <v>72</v>
-      </c>
-      <c r="H39" s="6">
-        <v>67</v>
-      </c>
-      <c r="I39" s="6">
-        <v>69</v>
-      </c>
-      <c r="J39" s="6">
-        <v>278</v>
-      </c>
-      <c r="K39" s="7">
-        <v>11</v>
-      </c>
-      <c r="L39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>155</v>
+      <c r="A40" t="s">
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>-6</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="6">
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>-1</v>
       </c>
-      <c r="F40" s="6">
-        <v>70</v>
-      </c>
-      <c r="G40" s="6">
-        <v>68</v>
-      </c>
-      <c r="H40" s="6">
-        <v>70</v>
-      </c>
-      <c r="I40" s="6">
-        <v>70</v>
-      </c>
-      <c r="J40" s="6">
+      <c r="F40">
+        <v>70</v>
+      </c>
+      <c r="G40">
+        <v>68</v>
+      </c>
+      <c r="H40">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>70</v>
+      </c>
+      <c r="J40">
         <v>278</v>
       </c>
       <c r="K40" s="7">
@@ -2584,34 +2584,34 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>155</v>
+      <c r="A41" t="s">
+        <v>151</v>
       </c>
       <c r="B41" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>-6</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="6">
-        <v>68</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41">
+        <v>68</v>
+      </c>
+      <c r="G41">
         <v>73</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <v>66</v>
       </c>
-      <c r="I41" s="6">
-        <v>71</v>
-      </c>
-      <c r="J41" s="6">
+      <c r="I41">
+        <v>71</v>
+      </c>
+      <c r="J41">
         <v>278</v>
       </c>
       <c r="K41" s="7">
@@ -2623,34 +2623,34 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>155</v>
+      <c r="A42" t="s">
+        <v>151</v>
       </c>
       <c r="B42" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>-6</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="F42" s="6">
-        <v>69</v>
-      </c>
-      <c r="G42" s="6">
-        <v>69</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="F42">
+        <v>69</v>
+      </c>
+      <c r="G42">
+        <v>69</v>
+      </c>
+      <c r="H42">
         <v>66</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42">
         <v>74</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42">
         <v>278</v>
       </c>
       <c r="K42" s="7">
@@ -2662,34 +2662,34 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>-5</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>-3</v>
       </c>
-      <c r="F43" s="6">
-        <v>70</v>
-      </c>
-      <c r="G43" s="6">
-        <v>70</v>
-      </c>
-      <c r="H43" s="6">
-        <v>71</v>
-      </c>
-      <c r="I43" s="6">
-        <v>68</v>
-      </c>
-      <c r="J43" s="6">
+      <c r="F43">
+        <v>70</v>
+      </c>
+      <c r="G43">
+        <v>70</v>
+      </c>
+      <c r="H43">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>68</v>
+      </c>
+      <c r="J43">
         <v>279</v>
       </c>
       <c r="K43" s="7">
@@ -2701,112 +2701,112 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44">
+        <v>-5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>-2</v>
+      </c>
+      <c r="F44">
+        <v>69</v>
+      </c>
+      <c r="G44">
+        <v>70</v>
+      </c>
+      <c r="H44">
+        <v>71</v>
+      </c>
+      <c r="I44">
+        <v>69</v>
+      </c>
+      <c r="J44">
+        <v>279</v>
+      </c>
+      <c r="K44" s="7">
+        <v>11</v>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C45">
         <v>-5</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="6">
-        <v>-2</v>
-      </c>
-      <c r="F44" s="6">
-        <v>69</v>
-      </c>
-      <c r="G44" s="6">
-        <v>70</v>
-      </c>
-      <c r="H44" s="6">
-        <v>71</v>
-      </c>
-      <c r="I44" s="6">
-        <v>69</v>
-      </c>
-      <c r="J44" s="6">
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>70</v>
+      </c>
+      <c r="G45">
+        <v>70</v>
+      </c>
+      <c r="H45">
+        <v>67</v>
+      </c>
+      <c r="I45">
+        <v>72</v>
+      </c>
+      <c r="J45">
         <v>279</v>
       </c>
-      <c r="K44" s="7">
-        <v>11</v>
-      </c>
-      <c r="L44" s="8" t="str">
+      <c r="K45" s="7">
+        <v>11</v>
+      </c>
+      <c r="L45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>70</v>
-      </c>
-      <c r="G45" s="6">
-        <v>70</v>
-      </c>
-      <c r="H45" s="6">
-        <v>67</v>
-      </c>
-      <c r="I45" s="6">
-        <v>72</v>
-      </c>
-      <c r="J45" s="6">
-        <v>279</v>
-      </c>
-      <c r="K45" s="7">
-        <v>11</v>
-      </c>
-      <c r="L45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46">
         <v>-5</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6">
-        <v>2</v>
-      </c>
-      <c r="F46" s="6">
-        <v>68</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>68</v>
+      </c>
+      <c r="G46">
         <v>67</v>
       </c>
-      <c r="H46" s="6">
-        <v>71</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="H46">
+        <v>71</v>
+      </c>
+      <c r="I46">
         <v>73</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46">
         <v>279</v>
       </c>
       <c r="K46" s="7">
@@ -2818,34 +2818,34 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="6">
+        <v>161</v>
+      </c>
+      <c r="C47">
         <v>-5</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>69</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>69</v>
+      </c>
+      <c r="G47">
         <v>73</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47">
         <v>65</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47">
         <v>72</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47">
         <v>279</v>
       </c>
       <c r="K47" s="7">
@@ -2857,34 +2857,34 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="6">
+        <v>116</v>
+      </c>
+      <c r="C48">
         <v>-5</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" s="6">
-        <v>71</v>
-      </c>
-      <c r="G48" s="6">
-        <v>68</v>
-      </c>
-      <c r="H48" s="6">
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>71</v>
+      </c>
+      <c r="G48">
+        <v>68</v>
+      </c>
+      <c r="H48">
         <v>67</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48">
         <v>73</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48">
         <v>279</v>
       </c>
       <c r="K48" s="7">
@@ -2896,34 +2896,34 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>161</v>
+      <c r="A49" t="s">
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>-4</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
         <v>-7</v>
       </c>
-      <c r="F49" s="6">
-        <v>69</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="F49">
+        <v>69</v>
+      </c>
+      <c r="G49">
         <v>73</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49">
         <v>74</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49">
         <v>64</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49">
         <v>280</v>
       </c>
       <c r="K49" s="7">
@@ -2935,34 +2935,34 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>161</v>
+      <c r="A50" t="s">
+        <v>162</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>-4</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="6">
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>-1</v>
       </c>
-      <c r="F50" s="6">
-        <v>69</v>
-      </c>
-      <c r="G50" s="6">
-        <v>71</v>
-      </c>
-      <c r="H50" s="6">
-        <v>70</v>
-      </c>
-      <c r="I50" s="6">
-        <v>70</v>
-      </c>
-      <c r="J50" s="6">
+      <c r="F50">
+        <v>69</v>
+      </c>
+      <c r="G50">
+        <v>71</v>
+      </c>
+      <c r="H50">
+        <v>70</v>
+      </c>
+      <c r="I50">
+        <v>70</v>
+      </c>
+      <c r="J50">
         <v>280</v>
       </c>
       <c r="K50" s="7">
@@ -2974,34 +2974,34 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>161</v>
+      <c r="A51" t="s">
+        <v>162</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51">
         <v>-4</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6">
-        <v>2</v>
-      </c>
-      <c r="F51" s="6">
-        <v>68</v>
-      </c>
-      <c r="G51" s="6">
-        <v>71</v>
-      </c>
-      <c r="H51" s="6">
-        <v>68</v>
-      </c>
-      <c r="I51" s="6">
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>68</v>
+      </c>
+      <c r="G51">
+        <v>71</v>
+      </c>
+      <c r="H51">
+        <v>68</v>
+      </c>
+      <c r="I51">
         <v>73</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51">
         <v>280</v>
       </c>
       <c r="K51" s="7">
@@ -3013,34 +3013,34 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>162</v>
+      <c r="A52" t="s">
+        <v>163</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52">
         <v>-3</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="6">
-        <v>68</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="F52">
+        <v>68</v>
+      </c>
+      <c r="G52">
         <v>73</v>
       </c>
-      <c r="H52" s="6">
-        <v>69</v>
-      </c>
-      <c r="I52" s="6">
-        <v>71</v>
-      </c>
-      <c r="J52" s="6">
+      <c r="H52">
+        <v>69</v>
+      </c>
+      <c r="I52">
+        <v>71</v>
+      </c>
+      <c r="J52">
         <v>281</v>
       </c>
       <c r="K52" s="7">
@@ -3052,112 +3052,112 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>162</v>
+      <c r="A53" t="s">
+        <v>163</v>
       </c>
       <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53">
+        <v>-3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>67</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+      <c r="H53">
+        <v>68</v>
+      </c>
+      <c r="I53">
+        <v>71</v>
+      </c>
+      <c r="J53">
+        <v>281</v>
+      </c>
+      <c r="K53" s="7">
+        <v>11</v>
+      </c>
+      <c r="L53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="6">
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54">
         <v>-3</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="G54">
+        <v>72</v>
+      </c>
+      <c r="H54">
         <v>67</v>
       </c>
-      <c r="G53" s="6">
-        <v>75</v>
-      </c>
-      <c r="H53" s="6">
-        <v>68</v>
-      </c>
-      <c r="I53" s="6">
-        <v>71</v>
-      </c>
-      <c r="J53" s="6">
+      <c r="I54">
+        <v>72</v>
+      </c>
+      <c r="J54">
         <v>281</v>
       </c>
-      <c r="K53" s="7">
-        <v>11</v>
-      </c>
-      <c r="L53" s="8" t="str">
+      <c r="K54" s="7">
+        <v>11</v>
+      </c>
+      <c r="L54" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>70</v>
-      </c>
-      <c r="G54" s="6">
-        <v>72</v>
-      </c>
-      <c r="H54" s="6">
-        <v>67</v>
-      </c>
-      <c r="I54" s="6">
-        <v>72</v>
-      </c>
-      <c r="J54" s="6">
-        <v>281</v>
-      </c>
-      <c r="K54" s="7">
-        <v>11</v>
-      </c>
-      <c r="L54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-    </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" t="s">
         <v>165</v>
       </c>
       <c r="B55" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>-2</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
         <v>-3</v>
       </c>
-      <c r="F55" s="6">
-        <v>71</v>
-      </c>
-      <c r="G55" s="6">
-        <v>71</v>
-      </c>
-      <c r="H55" s="6">
+      <c r="F55">
+        <v>71</v>
+      </c>
+      <c r="G55">
+        <v>71</v>
+      </c>
+      <c r="H55">
         <v>72</v>
       </c>
-      <c r="I55" s="6">
-        <v>68</v>
-      </c>
-      <c r="J55" s="6">
+      <c r="I55">
+        <v>68</v>
+      </c>
+      <c r="J55">
         <v>282</v>
       </c>
       <c r="K55" s="7">
@@ -3169,34 +3169,34 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" t="s">
         <v>165</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>-2</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="6">
-        <v>68</v>
-      </c>
-      <c r="G56" s="6">
+      <c r="F56">
+        <v>68</v>
+      </c>
+      <c r="G56">
         <v>72</v>
       </c>
-      <c r="H56" s="6">
-        <v>71</v>
-      </c>
-      <c r="I56" s="6">
-        <v>71</v>
-      </c>
-      <c r="J56" s="6">
+      <c r="H56">
+        <v>71</v>
+      </c>
+      <c r="I56">
+        <v>71</v>
+      </c>
+      <c r="J56">
         <v>282</v>
       </c>
       <c r="K56" s="7">
@@ -3208,34 +3208,34 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" t="s">
         <v>168</v>
       </c>
       <c r="B57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57">
         <v>-1</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
         <v>-3</v>
       </c>
-      <c r="F57" s="6">
-        <v>70</v>
-      </c>
-      <c r="G57" s="6">
-        <v>69</v>
-      </c>
-      <c r="H57" s="6">
+      <c r="F57">
+        <v>70</v>
+      </c>
+      <c r="G57">
+        <v>69</v>
+      </c>
+      <c r="H57">
         <v>76</v>
       </c>
-      <c r="I57" s="6">
-        <v>68</v>
-      </c>
-      <c r="J57" s="6">
+      <c r="I57">
+        <v>68</v>
+      </c>
+      <c r="J57">
         <v>283</v>
       </c>
       <c r="K57" s="7">
@@ -3247,34 +3247,34 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" t="s">
         <v>168</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>-1</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>67</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <v>75</v>
       </c>
-      <c r="H58" s="6">
-        <v>70</v>
-      </c>
-      <c r="I58" s="6">
-        <v>71</v>
-      </c>
-      <c r="J58" s="6">
+      <c r="H58">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>71</v>
+      </c>
+      <c r="J58">
         <v>283</v>
       </c>
       <c r="K58" s="7">
@@ -3286,34 +3286,34 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" t="s">
         <v>168</v>
       </c>
       <c r="B59" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59">
         <v>-1</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" s="6">
-        <v>69</v>
-      </c>
-      <c r="G59" s="6">
-        <v>71</v>
-      </c>
-      <c r="H59" s="6">
-        <v>70</v>
-      </c>
-      <c r="I59" s="6">
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>69</v>
+      </c>
+      <c r="G59">
+        <v>71</v>
+      </c>
+      <c r="H59">
+        <v>70</v>
+      </c>
+      <c r="I59">
         <v>73</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59">
         <v>283</v>
       </c>
       <c r="K59" s="7">
@@ -3325,34 +3325,34 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" t="s">
         <v>171</v>
       </c>
       <c r="B60" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6">
-        <v>71</v>
-      </c>
-      <c r="G60" s="6">
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>71</v>
+      </c>
+      <c r="G60">
         <v>67</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60">
         <v>74</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60">
         <v>72</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60">
         <v>284</v>
       </c>
       <c r="K60" s="7">
@@ -3364,34 +3364,34 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" t="s">
         <v>171</v>
       </c>
       <c r="B61" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>67</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61">
         <v>74</v>
       </c>
-      <c r="H61" s="6">
-        <v>71</v>
-      </c>
-      <c r="I61" s="6">
+      <c r="H61">
+        <v>71</v>
+      </c>
+      <c r="I61">
         <v>72</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61">
         <v>284</v>
       </c>
       <c r="K61" s="7">
@@ -3403,34 +3403,34 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" t="s">
         <v>171</v>
       </c>
       <c r="B62" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="6">
-        <v>2</v>
-      </c>
-      <c r="F62" s="6">
-        <v>68</v>
-      </c>
-      <c r="G62" s="6">
-        <v>71</v>
-      </c>
-      <c r="H62" s="6">
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>68</v>
+      </c>
+      <c r="G62">
+        <v>71</v>
+      </c>
+      <c r="H62">
         <v>72</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62">
         <v>73</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62">
         <v>284</v>
       </c>
       <c r="K62" s="7">
@@ -3442,34 +3442,34 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" t="s">
         <v>171</v>
       </c>
       <c r="B63" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="6">
-        <v>2</v>
-      </c>
-      <c r="F63" s="6">
-        <v>69</v>
-      </c>
-      <c r="G63" s="6">
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>69</v>
+      </c>
+      <c r="G63">
         <v>73</v>
       </c>
-      <c r="H63" s="6">
-        <v>69</v>
-      </c>
-      <c r="I63" s="6">
+      <c r="H63">
+        <v>69</v>
+      </c>
+      <c r="I63">
         <v>73</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63">
         <v>284</v>
       </c>
       <c r="K63" s="7">
@@ -3481,34 +3481,34 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" t="s">
         <v>171</v>
       </c>
       <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
         <v>4</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>67</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64">
         <v>74</v>
       </c>
-      <c r="H64" s="6">
-        <v>68</v>
-      </c>
-      <c r="I64" s="6">
+      <c r="H64">
+        <v>68</v>
+      </c>
+      <c r="I64">
         <v>75</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64">
         <v>284</v>
       </c>
       <c r="K64" s="7">
@@ -3520,34 +3520,34 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" t="s">
         <v>171</v>
       </c>
       <c r="B65" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="F65" s="6">
-        <v>71</v>
-      </c>
-      <c r="G65" s="6">
-        <v>70</v>
-      </c>
-      <c r="H65" s="6">
-        <v>68</v>
-      </c>
-      <c r="I65" s="6">
+      <c r="F65">
+        <v>71</v>
+      </c>
+      <c r="G65">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>68</v>
+      </c>
+      <c r="I65">
         <v>75</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65">
         <v>284</v>
       </c>
       <c r="K65" s="7">
@@ -3559,34 +3559,34 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" t="s">
         <v>171</v>
       </c>
       <c r="B66" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
         <v>5</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66">
         <v>67</v>
       </c>
-      <c r="G66" s="6">
-        <v>70</v>
-      </c>
-      <c r="H66" s="6">
-        <v>71</v>
-      </c>
-      <c r="I66" s="6">
+      <c r="G66">
+        <v>70</v>
+      </c>
+      <c r="H66">
+        <v>71</v>
+      </c>
+      <c r="I66">
         <v>76</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66">
         <v>284</v>
       </c>
       <c r="K66" s="7">
@@ -3598,34 +3598,34 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" t="s">
         <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="6">
-        <v>1</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6">
+        <v>132</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67">
         <v>3</v>
       </c>
-      <c r="F67" s="6">
-        <v>69</v>
-      </c>
-      <c r="G67" s="6">
+      <c r="F67">
+        <v>69</v>
+      </c>
+      <c r="G67">
         <v>73</v>
       </c>
-      <c r="H67" s="6">
-        <v>69</v>
-      </c>
-      <c r="I67" s="6">
+      <c r="H67">
+        <v>69</v>
+      </c>
+      <c r="I67">
         <v>74</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67">
         <v>285</v>
       </c>
       <c r="K67" s="7">
@@ -3637,34 +3637,34 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" t="s">
         <v>178</v>
       </c>
       <c r="B68" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
         <v>5</v>
       </c>
-      <c r="F68" s="6">
-        <v>70</v>
-      </c>
-      <c r="G68" s="6">
-        <v>71</v>
-      </c>
-      <c r="H68" s="6">
-        <v>68</v>
-      </c>
-      <c r="I68" s="6">
+      <c r="F68">
+        <v>70</v>
+      </c>
+      <c r="G68">
+        <v>71</v>
+      </c>
+      <c r="H68">
+        <v>68</v>
+      </c>
+      <c r="I68">
         <v>76</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68">
         <v>285</v>
       </c>
       <c r="K68" s="7">
@@ -3676,34 +3676,34 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6">
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
         <v>3</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69">
         <v>67</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69">
         <v>75</v>
       </c>
-      <c r="H69" s="6">
-        <v>71</v>
-      </c>
-      <c r="I69" s="6">
+      <c r="H69">
+        <v>71</v>
+      </c>
+      <c r="I69">
         <v>74</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69">
         <v>287</v>
       </c>
       <c r="K69" s="7">
@@ -3715,34 +3715,34 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70">
         <v>73</v>
       </c>
-      <c r="G70" s="6">
-        <v>69</v>
-      </c>
-      <c r="H70" s="6">
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70">
         <v>75</v>
       </c>
-      <c r="I70" s="6">
-        <v>71</v>
-      </c>
-      <c r="J70" s="6">
+      <c r="I70">
+        <v>71</v>
+      </c>
+      <c r="J70">
         <v>288</v>
       </c>
       <c r="K70" s="7">
@@ -3754,34 +3754,34 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" t="s">
         <v>180</v>
       </c>
       <c r="B71" t="s">
         <v>181</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71">
         <v>6</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6">
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
         <v>-1</v>
       </c>
-      <c r="F71" s="6">
-        <v>68</v>
-      </c>
-      <c r="G71" s="6">
+      <c r="F71">
+        <v>68</v>
+      </c>
+      <c r="G71">
         <v>74</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71">
         <v>78</v>
       </c>
-      <c r="I71" s="6">
-        <v>70</v>
-      </c>
-      <c r="J71" s="6">
+      <c r="I71">
+        <v>70</v>
+      </c>
+      <c r="J71">
         <v>290</v>
       </c>
       <c r="K71" s="7">
@@ -3793,133 +3793,43 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" t="s">
         <v>180</v>
       </c>
       <c r="B72" t="s">
         <v>182</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72">
         <v>6</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="6">
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
         <v>8</v>
       </c>
-      <c r="F72" s="6">
-        <v>71</v>
-      </c>
-      <c r="G72" s="6">
-        <v>70</v>
-      </c>
-      <c r="H72" s="6">
-        <v>70</v>
-      </c>
-      <c r="I72" s="6">
+      <c r="F72">
+        <v>71</v>
+      </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+      <c r="H72">
+        <v>70</v>
+      </c>
+      <c r="I72">
         <v>79</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72">
         <v>290</v>
       </c>
       <c r="K72" s="7">
         <v>11</v>
       </c>
-      <c r="L72" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="8"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="8"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="8"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="8"/>
+      <c r="L72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
